--- a/data/trans_orig/PER_CONT_AIRE_INDUSTRIA-Edad-trans_orig.xlsx
+++ b/data/trans_orig/PER_CONT_AIRE_INDUSTRIA-Edad-trans_orig.xlsx
@@ -4891,12 +4891,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>1134</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -4906,12 +4906,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>1,08%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -5312,12 +5312,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1196</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -5327,12 +5327,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -6680,97 +6680,97 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>1217</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>0,52%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K22" s="2" t="inlineStr">
+      <c r="R22" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L22" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M22" s="2" t="inlineStr">
-        <is>
-          <t>1155</t>
-        </is>
-      </c>
-      <c r="N22" s="2" t="inlineStr">
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U22" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O22" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P22" s="2" t="inlineStr">
-        <is>
-          <t>0,49%</t>
-        </is>
-      </c>
-      <c r="Q22" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R22" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S22" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T22" s="2" t="inlineStr">
-        <is>
-          <t>1187</t>
-        </is>
-      </c>
-      <c r="U22" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>0,25%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -7627,12 +7627,12 @@
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>759</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -7642,12 +7642,12 @@
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>0,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">

--- a/data/trans_orig/PER_CONT_AIRE_INDUSTRIA-Edad-trans_orig.xlsx
+++ b/data/trans_orig/PER_CONT_AIRE_INDUSTRIA-Edad-trans_orig.xlsx
@@ -544,7 +544,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción contaminación atmosférica procedente de industrial en País Vasco</t>
+          <t>Percepción contaminación atmosférica procedente de industrial en País Vasco (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4435,7 +4435,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción contaminación atmosférica procedente de industrial en C.Valenciana</t>
+          <t>Percepción contaminación atmosférica procedente de industrial en C.Valenciana (tasa de respuesta: 93,67%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/PER_CONT_AIRE_INDUSTRIA-Edad-trans_orig.xlsx
+++ b/data/trans_orig/PER_CONT_AIRE_INDUSTRIA-Edad-trans_orig.xlsx
@@ -734,32 +734,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>58902</t>
+          <t>62707</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>56647</t>
+          <t>60500</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>60857</t>
+          <t>64207</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>91,17%</t>
+          <t>92,69%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>87,68%</t>
+          <t>89,43%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>94,19%</t>
+          <t>94,91%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -769,32 +769,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>57381</t>
+          <t>63229</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>54902</t>
+          <t>60916</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>59311</t>
+          <t>64904</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>90,8%</t>
+          <t>92,54%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>86,88%</t>
+          <t>89,15%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>93,85%</t>
+          <t>94,99%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -804,32 +804,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>116283</t>
+          <t>125936</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>112834</t>
+          <t>122923</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>118985</t>
+          <t>128475</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>90,99%</t>
+          <t>92,61%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>88,29%</t>
+          <t>90,4%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>93,1%</t>
+          <t>94,48%</t>
         </is>
       </c>
     </row>
@@ -847,32 +847,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4471</t>
+          <t>2815</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2722</t>
+          <t>1757</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6642</t>
+          <t>4439</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,92%</t>
+          <t>4,16%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,21%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>10,28%</t>
+          <t>6,56%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -882,32 +882,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4037</t>
+          <t>3890</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2542</t>
+          <t>2509</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>5887</t>
+          <t>6162</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>6,39%</t>
+          <t>5,69%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>4,02%</t>
+          <t>3,67%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>9,32%</t>
+          <t>9,02%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -917,32 +917,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>8508</t>
+          <t>6705</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>6309</t>
+          <t>4964</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>11911</t>
+          <t>9212</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>6,66%</t>
+          <t>4,93%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>4,94%</t>
+          <t>3,65%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>9,32%</t>
+          <t>6,77%</t>
         </is>
       </c>
     </row>
@@ -960,32 +960,32 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1236</t>
+          <t>2132</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>622</t>
+          <t>1069</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2460</t>
+          <t>4075</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>1,91%</t>
+          <t>3,15%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,96%</t>
+          <t>1,58%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>3,81%</t>
+          <t>6,02%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -995,32 +995,32 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>1777</t>
+          <t>1210</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>756</t>
+          <t>534</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>3618</t>
+          <t>2389</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>2,81%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>1,2%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>5,72%</t>
+          <t>3,5%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1030,32 +1030,32 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>3013</t>
+          <t>3341</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>1706</t>
+          <t>1949</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>4852</t>
+          <t>5486</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>2,36%</t>
+          <t>2,46%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>1,34%</t>
+          <t>1,43%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>3,8%</t>
+          <t>4,03%</t>
         </is>
       </c>
     </row>
@@ -1073,17 +1073,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>64609</t>
+          <t>67654</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>64609</t>
+          <t>67654</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>64609</t>
+          <t>67654</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -1108,17 +1108,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>63195</t>
+          <t>68329</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>63195</t>
+          <t>68329</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>63195</t>
+          <t>68329</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1143,17 +1143,17 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>127804</t>
+          <t>135983</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>127804</t>
+          <t>135983</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>127804</t>
+          <t>135983</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -1190,32 +1190,32 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>64772</t>
+          <t>84448</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>61945</t>
+          <t>81710</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>66771</t>
+          <t>86689</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>90,1%</t>
+          <t>92,47%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>86,17%</t>
+          <t>89,47%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>92,89%</t>
+          <t>94,92%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1225,32 +1225,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>61400</t>
+          <t>84140</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>58815</t>
+          <t>81529</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>63185</t>
+          <t>86137</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>92,66%</t>
+          <t>94,02%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>88,76%</t>
+          <t>91,1%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>95,35%</t>
+          <t>96,25%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1260,32 +1260,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>126172</t>
+          <t>168588</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>122736</t>
+          <t>164872</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>129033</t>
+          <t>171593</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>91,33%</t>
+          <t>93,24%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>88,84%</t>
+          <t>91,18%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>93,4%</t>
+          <t>94,9%</t>
         </is>
       </c>
     </row>
@@ -1303,32 +1303,32 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4978</t>
+          <t>4465</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3308</t>
+          <t>2777</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7353</t>
+          <t>6837</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,93%</t>
+          <t>4,89%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,6%</t>
+          <t>3,04%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>10,23%</t>
+          <t>7,49%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1338,32 +1338,32 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4348</t>
+          <t>4152</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2630</t>
+          <t>2549</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6734</t>
+          <t>6360</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,56%</t>
+          <t>4,64%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>3,97%</t>
+          <t>2,85%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>10,16%</t>
+          <t>7,11%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1373,32 +1373,32 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>9326</t>
+          <t>8617</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>6894</t>
+          <t>6223</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>12491</t>
+          <t>11850</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>6,75%</t>
+          <t>4,77%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>4,99%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>9,04%</t>
+          <t>6,55%</t>
         </is>
       </c>
     </row>
@@ -1416,32 +1416,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2135</t>
+          <t>2412</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1099</t>
+          <t>1346</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3767</t>
+          <t>4376</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,97%</t>
+          <t>2,64%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,53%</t>
+          <t>1,47%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>5,24%</t>
+          <t>4,79%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1451,32 +1451,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>516</t>
+          <t>1201</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>391</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>1723</t>
+          <t>3109</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,78%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>0,2%</t>
+          <t>0,44%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1486,32 +1486,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>2651</t>
+          <t>3613</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>1528</t>
+          <t>2124</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>4275</t>
+          <t>6198</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>1,92%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>1,11%</t>
+          <t>1,17%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>3,09%</t>
+          <t>3,43%</t>
         </is>
       </c>
     </row>
@@ -1529,17 +1529,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>71885</t>
+          <t>91325</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>71885</t>
+          <t>91325</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>71885</t>
+          <t>91325</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>66264</t>
+          <t>89493</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>66264</t>
+          <t>89493</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>66264</t>
+          <t>89493</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1599,17 +1599,17 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>138149</t>
+          <t>180818</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>138149</t>
+          <t>180818</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>138149</t>
+          <t>180818</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -1646,32 +1646,32 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>86984</t>
+          <t>113636</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>83489</t>
+          <t>109605</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>89417</t>
+          <t>116632</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>89,13%</t>
+          <t>89,87%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>85,55%</t>
+          <t>86,68%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>91,63%</t>
+          <t>92,24%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1681,32 +1681,32 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>89842</t>
+          <t>114805</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>86593</t>
+          <t>111461</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>92514</t>
+          <t>117710</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>89,72%</t>
+          <t>90,62%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>86,48%</t>
+          <t>87,98%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>92,39%</t>
+          <t>92,91%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1716,32 +1716,32 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>176825</t>
+          <t>228441</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>172794</t>
+          <t>223589</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>180580</t>
+          <t>232798</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>89,43%</t>
+          <t>90,24%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>87,39%</t>
+          <t>88,33%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>91,33%</t>
+          <t>91,97%</t>
         </is>
       </c>
     </row>
@@ -1759,32 +1759,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7146</t>
+          <t>9046</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5161</t>
+          <t>6510</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>9926</t>
+          <t>12294</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,32%</t>
+          <t>7,15%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,29%</t>
+          <t>5,15%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>10,17%</t>
+          <t>9,72%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1794,32 +1794,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6061</t>
+          <t>7211</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>4086</t>
+          <t>5091</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>8527</t>
+          <t>9976</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>6,05%</t>
+          <t>5,69%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>4,08%</t>
+          <t>4,02%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>8,51%</t>
+          <t>7,87%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1829,32 +1829,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>13208</t>
+          <t>16257</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>10363</t>
+          <t>12795</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>16639</t>
+          <t>20517</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>6,68%</t>
+          <t>6,42%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>5,24%</t>
+          <t>5,05%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>8,42%</t>
+          <t>8,11%</t>
         </is>
       </c>
     </row>
@@ -1872,32 +1872,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>3457</t>
+          <t>3761</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2126</t>
+          <t>2255</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>5743</t>
+          <t>6218</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>3,54%</t>
+          <t>2,97%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>2,18%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>5,88%</t>
+          <t>4,92%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1907,32 +1907,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>4233</t>
+          <t>4678</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>2410</t>
+          <t>2855</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>6575</t>
+          <t>7106</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>4,23%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>2,41%</t>
+          <t>2,25%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>6,57%</t>
+          <t>5,61%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1942,32 +1942,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>7690</t>
+          <t>8438</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>5357</t>
+          <t>6085</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>10702</t>
+          <t>11649</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>3,89%</t>
+          <t>3,33%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>2,71%</t>
+          <t>2,4%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>5,41%</t>
+          <t>4,6%</t>
         </is>
       </c>
     </row>
@@ -1985,17 +1985,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>97587</t>
+          <t>126443</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>97587</t>
+          <t>126443</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>97587</t>
+          <t>126443</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2020,17 +2020,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>100136</t>
+          <t>126694</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>100136</t>
+          <t>126694</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>100136</t>
+          <t>126694</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2055,17 +2055,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>197723</t>
+          <t>253136</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>197723</t>
+          <t>253136</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>197723</t>
+          <t>253136</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2102,32 +2102,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>124983</t>
+          <t>133129</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>121304</t>
+          <t>129329</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>128139</t>
+          <t>136170</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>88,48%</t>
+          <t>89,87%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>85,88%</t>
+          <t>87,3%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>90,72%</t>
+          <t>91,92%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2137,32 +2137,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>126322</t>
+          <t>138461</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>123112</t>
+          <t>135599</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>129526</t>
+          <t>141258</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>89,96%</t>
+          <t>92,26%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>87,67%</t>
+          <t>90,35%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>92,24%</t>
+          <t>94,13%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2172,32 +2172,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>251306</t>
+          <t>271591</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>246320</t>
+          <t>266934</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>256061</t>
+          <t>275738</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>89,22%</t>
+          <t>91,07%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>87,45%</t>
+          <t>89,51%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>90,91%</t>
+          <t>92,46%</t>
         </is>
       </c>
     </row>
@@ -2215,32 +2215,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>10474</t>
+          <t>10169</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7728</t>
+          <t>7692</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>13462</t>
+          <t>13408</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>7,42%</t>
+          <t>6,86%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,47%</t>
+          <t>5,19%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>9,53%</t>
+          <t>9,05%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2250,32 +2250,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>9052</t>
+          <t>7468</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>6583</t>
+          <t>5258</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>12184</t>
+          <t>9788</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>6,45%</t>
+          <t>4,98%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>4,69%</t>
+          <t>3,5%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>8,68%</t>
+          <t>6,52%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2285,32 +2285,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>19527</t>
+          <t>17637</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>15893</t>
+          <t>14530</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>24028</t>
+          <t>21813</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>6,93%</t>
+          <t>5,91%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>5,64%</t>
+          <t>4,87%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>8,53%</t>
+          <t>7,31%</t>
         </is>
       </c>
     </row>
@@ -2328,32 +2328,32 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>5792</t>
+          <t>4842</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>3870</t>
+          <t>3272</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>8385</t>
+          <t>7202</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>4,1%</t>
+          <t>3,27%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>2,74%</t>
+          <t>2,21%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>5,94%</t>
+          <t>4,86%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -2363,32 +2363,32 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>5045</t>
+          <t>4145</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>3402</t>
+          <t>2524</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>7528</t>
+          <t>6075</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>3,59%</t>
+          <t>2,76%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>1,68%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>5,36%</t>
+          <t>4,05%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -2398,32 +2398,32 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>10837</t>
+          <t>8987</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>7923</t>
+          <t>6308</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>14196</t>
+          <t>11638</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>3,85%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>2,81%</t>
+          <t>2,12%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>5,04%</t>
+          <t>3,9%</t>
         </is>
       </c>
     </row>
@@ -2441,17 +2441,17 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>141250</t>
+          <t>148140</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>141250</t>
+          <t>148140</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>141250</t>
+          <t>148140</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -2476,17 +2476,17 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>140420</t>
+          <t>150074</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>140420</t>
+          <t>150074</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>140420</t>
+          <t>150074</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -2511,17 +2511,17 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>281670</t>
+          <t>298215</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>281670</t>
+          <t>298215</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>281670</t>
+          <t>298215</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -2558,32 +2558,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>114712</t>
+          <t>118637</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>110707</t>
+          <t>115543</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>117479</t>
+          <t>121205</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>90,1%</t>
+          <t>91,21%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>86,95%</t>
+          <t>88,83%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>92,27%</t>
+          <t>93,19%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2593,32 +2593,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>135020</t>
+          <t>127771</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>131296</t>
+          <t>124884</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>137965</t>
+          <t>130261</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>90,24%</t>
+          <t>91,42%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>87,75%</t>
+          <t>89,35%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>92,2%</t>
+          <t>93,2%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2628,32 +2628,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>249733</t>
+          <t>246408</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>244869</t>
+          <t>242230</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>253740</t>
+          <t>250076</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>90,17%</t>
+          <t>91,32%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>88,42%</t>
+          <t>89,77%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>91,62%</t>
+          <t>92,68%</t>
         </is>
       </c>
     </row>
@@ -2671,32 +2671,32 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>9258</t>
+          <t>7908</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>6892</t>
+          <t>5839</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>12984</t>
+          <t>10583</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>7,27%</t>
+          <t>6,08%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>5,41%</t>
+          <t>4,49%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>10,2%</t>
+          <t>8,14%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -2706,32 +2706,32 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>8706</t>
+          <t>6623</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>6497</t>
+          <t>4795</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>11933</t>
+          <t>8784</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>5,82%</t>
+          <t>4,74%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>4,34%</t>
+          <t>3,43%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>7,98%</t>
+          <t>6,29%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -2741,32 +2741,32 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>17964</t>
+          <t>14532</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>14619</t>
+          <t>11684</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>22159</t>
+          <t>17907</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>6,49%</t>
+          <t>5,39%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>5,28%</t>
+          <t>4,33%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>8,0%</t>
+          <t>6,64%</t>
         </is>
       </c>
     </row>
@@ -2784,32 +2784,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>3347</t>
+          <t>3524</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>1860</t>
+          <t>2239</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>5309</t>
+          <t>5375</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>2,63%</t>
+          <t>2,71%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>1,46%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>4,17%</t>
+          <t>4,13%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2819,22 +2819,22 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>5905</t>
+          <t>5372</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>4060</t>
+          <t>3788</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>8177</t>
+          <t>7342</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>3,95%</t>
+          <t>3,84%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
@@ -2844,7 +2844,7 @@
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>5,46%</t>
+          <t>5,25%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2854,32 +2854,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>9252</t>
+          <t>8896</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>6852</t>
+          <t>6771</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>12176</t>
+          <t>11776</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>3,34%</t>
+          <t>3,3%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>2,47%</t>
+          <t>2,51%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>4,4%</t>
+          <t>4,36%</t>
         </is>
       </c>
     </row>
@@ -2897,17 +2897,17 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>127317</t>
+          <t>130069</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>127317</t>
+          <t>130069</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>127317</t>
+          <t>130069</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2932,17 +2932,17 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>149632</t>
+          <t>139766</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>149632</t>
+          <t>139766</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>149632</t>
+          <t>139766</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -2967,17 +2967,17 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>276949</t>
+          <t>269835</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>276949</t>
+          <t>269835</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>276949</t>
+          <t>269835</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -3014,32 +3014,32 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>104573</t>
+          <t>88567</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>101802</t>
+          <t>86174</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>106615</t>
+          <t>90450</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>92,49%</t>
+          <t>92,59%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>90,04%</t>
+          <t>90,09%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>94,3%</t>
+          <t>94,56%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -3049,32 +3049,32 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>106223</t>
+          <t>102970</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>103071</t>
+          <t>100414</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>109075</t>
+          <t>105111</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>90,6%</t>
+          <t>91,96%</t>
         </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>87,91%</t>
+          <t>89,68%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>93,03%</t>
+          <t>93,87%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -3084,32 +3084,32 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>210795</t>
+          <t>191537</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>206753</t>
+          <t>188123</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>214516</t>
+          <t>194390</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>91,53%</t>
+          <t>92,25%</t>
         </is>
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>89,77%</t>
+          <t>90,61%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>93,14%</t>
+          <t>93,63%</t>
         </is>
       </c>
     </row>
@@ -3127,32 +3127,32 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>5277</t>
+          <t>4589</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>3726</t>
+          <t>3140</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>7428</t>
+          <t>6557</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>4,67%</t>
+          <t>4,8%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>3,28%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>6,57%</t>
+          <t>6,85%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3162,32 +3162,32 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>7652</t>
+          <t>5978</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>5506</t>
+          <t>4346</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>10601</t>
+          <t>8094</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>6,53%</t>
+          <t>5,34%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>4,7%</t>
+          <t>3,88%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>9,04%</t>
+          <t>7,23%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3197,32 +3197,32 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>12930</t>
+          <t>10567</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>10042</t>
+          <t>8255</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>16247</t>
+          <t>13595</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>5,61%</t>
+          <t>5,09%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>4,36%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>7,05%</t>
+          <t>6,55%</t>
         </is>
       </c>
     </row>
@@ -3240,67 +3240,67 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>3213</t>
+          <t>2497</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>1864</t>
+          <t>1448</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>5243</t>
+          <t>3849</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>2,84%</t>
+          <t>2,61%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
+          <t>1,51%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>4,02%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>3022</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>1847</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>4601</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>2,7%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
           <t>1,65%</t>
         </is>
       </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>4,64%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>3366</t>
-        </is>
-      </c>
-      <c r="L26" s="2" t="inlineStr">
-        <is>
-          <t>2009</t>
-        </is>
-      </c>
-      <c r="M26" s="2" t="inlineStr">
-        <is>
-          <t>5462</t>
-        </is>
-      </c>
-      <c r="N26" s="2" t="inlineStr">
-        <is>
-          <t>2,87%</t>
-        </is>
-      </c>
-      <c r="O26" s="2" t="inlineStr">
-        <is>
-          <t>1,71%</t>
-        </is>
-      </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>4,66%</t>
+          <t>4,11%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3310,32 +3310,32 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>6579</t>
+          <t>5519</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>4547</t>
+          <t>3980</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>9149</t>
+          <t>7867</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>2,86%</t>
+          <t>2,66%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>1,97%</t>
+          <t>1,92%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>3,97%</t>
+          <t>3,79%</t>
         </is>
       </c>
     </row>
@@ -3353,17 +3353,17 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>113064</t>
+          <t>95652</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>113064</t>
+          <t>95652</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>113064</t>
+          <t>95652</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3388,17 +3388,17 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>117241</t>
+          <t>111970</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>117241</t>
+          <t>111970</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>117241</t>
+          <t>111970</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3423,17 +3423,17 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>230304</t>
+          <t>207623</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>230304</t>
+          <t>207623</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>230304</t>
+          <t>207623</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3470,32 +3470,32 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>92595</t>
+          <t>76139</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>89916</t>
+          <t>74291</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>94555</t>
+          <t>77538</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>94,43%</t>
+          <t>94,7%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>91,7%</t>
+          <t>92,4%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>96,43%</t>
+          <t>96,44%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
@@ -3505,32 +3505,32 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>125247</t>
+          <t>118626</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>122636</t>
+          <t>116123</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>127524</t>
+          <t>120575</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>93,93%</t>
+          <t>94,12%</t>
         </is>
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>91,97%</t>
+          <t>92,14%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>95,64%</t>
+          <t>95,67%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
@@ -3540,32 +3540,32 @@
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>217843</t>
+          <t>194765</t>
         </is>
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>213991</t>
+          <t>191742</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>220622</t>
+          <t>197301</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
         <is>
-          <t>94,14%</t>
+          <t>94,35%</t>
         </is>
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>92,48%</t>
+          <t>92,88%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>95,34%</t>
+          <t>95,57%</t>
         </is>
       </c>
     </row>
@@ -3583,32 +3583,32 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>4343</t>
+          <t>3256</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>2543</t>
+          <t>2030</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>6984</t>
+          <t>4988</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>4,43%</t>
+          <t>4,05%</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>2,59%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>7,12%</t>
+          <t>6,2%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -3618,32 +3618,32 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>6021</t>
+          <t>5365</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>3884</t>
+          <t>3734</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>8461</t>
+          <t>7627</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>4,52%</t>
+          <t>4,26%</t>
         </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>2,91%</t>
+          <t>2,96%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>6,35%</t>
+          <t>6,05%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -3653,32 +3653,32 @@
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>10364</t>
+          <t>8621</t>
         </is>
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>7851</t>
+          <t>6499</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>13681</t>
+          <t>11609</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>4,48%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>3,39%</t>
+          <t>3,15%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>5,91%</t>
+          <t>5,62%</t>
         </is>
       </c>
     </row>
@@ -3696,32 +3696,32 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>1122</t>
+          <t>1008</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>399</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>2430</t>
+          <t>2108</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>1,14%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>0,49%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>2,48%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -3731,32 +3731,32 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>2071</t>
+          <t>2042</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>1144</t>
+          <t>1148</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>3331</t>
+          <t>3607</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>1,55%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>0,86%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>2,5%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -3766,22 +3766,22 @@
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>3193</t>
+          <t>3050</t>
         </is>
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>2051</t>
+          <t>1833</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>4938</t>
+          <t>4582</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="V30" s="2" t="inlineStr">
@@ -3791,7 +3791,7 @@
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>2,13%</t>
+          <t>2,22%</t>
         </is>
       </c>
     </row>
@@ -3809,17 +3809,17 @@
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>98059</t>
+          <t>80403</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>98059</t>
+          <t>80403</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>98059</t>
+          <t>80403</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -3844,17 +3844,17 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>133339</t>
+          <t>126033</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>133339</t>
+          <t>126033</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>133339</t>
+          <t>126033</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -3879,17 +3879,17 @@
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>231399</t>
+          <t>206436</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>231399</t>
+          <t>206436</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>231399</t>
+          <t>206436</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
@@ -3926,32 +3926,32 @@
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>647522</t>
+          <t>677264</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>640226</t>
+          <t>670204</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>654074</t>
+          <t>683558</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>90,72%</t>
+          <t>91,56%</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>89,7%</t>
+          <t>90,61%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>91,64%</t>
+          <t>92,41%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
@@ -3961,32 +3961,32 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>701436</t>
+          <t>750001</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>694624</t>
+          <t>743410</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>708179</t>
+          <t>756865</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
         <is>
-          <t>91,07%</t>
+          <t>92,32%</t>
         </is>
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>90,18%</t>
+          <t>91,51%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>91,94%</t>
+          <t>93,17%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
@@ -3996,32 +3996,32 @@
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>1348958</t>
+          <t>1427265</t>
         </is>
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>1339168</t>
+          <t>1417950</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>1359642</t>
+          <t>1436907</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
         <is>
-          <t>90,9%</t>
+          <t>91,96%</t>
         </is>
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>90,24%</t>
+          <t>91,36%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>91,62%</t>
+          <t>92,58%</t>
         </is>
       </c>
     </row>
@@ -4039,32 +4039,32 @@
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>45948</t>
+          <t>42248</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>40470</t>
+          <t>36884</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>51818</t>
+          <t>48111</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>6,44%</t>
+          <t>5,71%</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>5,67%</t>
+          <t>4,99%</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>7,26%</t>
+          <t>6,5%</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
@@ -4074,32 +4074,32 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>45878</t>
+          <t>40688</t>
         </is>
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>40321</t>
+          <t>35431</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
         <is>
-          <t>51700</t>
+          <t>46275</t>
         </is>
       </c>
       <c r="N33" s="2" t="inlineStr">
         <is>
-          <t>5,96%</t>
+          <t>5,01%</t>
         </is>
       </c>
       <c r="O33" s="2" t="inlineStr">
         <is>
-          <t>5,24%</t>
+          <t>4,36%</t>
         </is>
       </c>
       <c r="P33" s="2" t="inlineStr">
         <is>
-          <t>6,71%</t>
+          <t>5,7%</t>
         </is>
       </c>
       <c r="Q33" s="2" t="inlineStr">
@@ -4109,32 +4109,32 @@
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>91826</t>
+          <t>82936</t>
         </is>
       </c>
       <c r="S33" s="2" t="inlineStr">
         <is>
-          <t>82972</t>
+          <t>74567</t>
         </is>
       </c>
       <c r="T33" s="2" t="inlineStr">
         <is>
-          <t>100412</t>
+          <t>91146</t>
         </is>
       </c>
       <c r="U33" s="2" t="inlineStr">
         <is>
-          <t>6,19%</t>
+          <t>5,34%</t>
         </is>
       </c>
       <c r="V33" s="2" t="inlineStr">
         <is>
-          <t>5,59%</t>
+          <t>4,8%</t>
         </is>
       </c>
       <c r="W33" s="2" t="inlineStr">
         <is>
-          <t>6,77%</t>
+          <t>5,87%</t>
         </is>
       </c>
     </row>
@@ -4152,32 +4152,32 @@
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>20302</t>
+          <t>20174</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>16383</t>
+          <t>16787</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>24779</t>
+          <t>24960</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>2,84%</t>
+          <t>2,73%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>2,3%</t>
+          <t>2,27%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>3,47%</t>
+          <t>3,37%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
@@ -4187,32 +4187,32 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>22913</t>
+          <t>21670</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>18991</t>
+          <t>18260</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>27736</t>
+          <t>25578</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
         <is>
-          <t>2,97%</t>
+          <t>2,67%</t>
         </is>
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>2,47%</t>
+          <t>2,25%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>3,15%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
@@ -4222,32 +4222,32 @@
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>43215</t>
+          <t>41845</t>
         </is>
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>37595</t>
+          <t>36597</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>49107</t>
+          <t>47569</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
         <is>
-          <t>2,91%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>2,53%</t>
+          <t>2,36%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>3,31%</t>
+          <t>3,06%</t>
         </is>
       </c>
     </row>
@@ -4265,17 +4265,17 @@
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>713772</t>
+          <t>739687</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>713772</t>
+          <t>739687</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>713772</t>
+          <t>739687</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
@@ -4300,17 +4300,17 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>770227</t>
+          <t>812359</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>770227</t>
+          <t>812359</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>770227</t>
+          <t>812359</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
@@ -4335,17 +4335,17 @@
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>1483999</t>
+          <t>1552046</t>
         </is>
       </c>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t>1483999</t>
+          <t>1552046</t>
         </is>
       </c>
       <c r="T35" s="2" t="inlineStr">
         <is>
-          <t>1483999</t>
+          <t>1552046</t>
         </is>
       </c>
       <c r="U35" s="2" t="inlineStr">

--- a/data/trans_orig/PER_CONT_AIRE_INDUSTRIA-Edad-trans_orig.xlsx
+++ b/data/trans_orig/PER_CONT_AIRE_INDUSTRIA-Edad-trans_orig.xlsx
@@ -7,8 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -544,7 +544,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción contaminación atmosférica procedente de industrial en País Vasco (tasa de respuesta: 100,0%)</t>
+          <t>Percepción contaminación atmosférica procedente de industrial en C.Valenciana (tasa de respuesta: 93,67%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -729,107 +729,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>172</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>62707</t>
+          <t>103209</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>60500</t>
+          <t>98886</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>64207</t>
+          <t>105371</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>92,69%</t>
+          <t>96,83%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>89,43%</t>
+          <t>92,78%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>94,91%</t>
+          <t>98,86%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>172</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>63229</t>
+          <t>101487</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>60916</t>
+          <t>96698</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>64904</t>
+          <t>103513</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>92,54%</t>
+          <t>97,0%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>89,15%</t>
+          <t>92,43%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>94,99%</t>
+          <t>98,94%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>667</t>
+          <t>344</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>125936</t>
+          <t>204696</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>122923</t>
+          <t>198826</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>128475</t>
+          <t>208045</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>92,61%</t>
+          <t>96,92%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>90,4%</t>
+          <t>94,14%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>94,48%</t>
+          <t>98,5%</t>
         </is>
       </c>
     </row>
@@ -842,107 +842,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
+          <t>2858</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>707</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>6984</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>2,68%</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0,66%</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>6,55%</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>3135</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>1109</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>7924</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>3,0%</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>1,06%</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>7,57%</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>5992</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
           <t>2815</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>1757</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>4439</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>4,16%</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>2,6%</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>6,56%</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>3890</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>2509</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>6162</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>5,69%</t>
-        </is>
-      </c>
-      <c r="O5" s="2" t="inlineStr">
-        <is>
-          <t>3,67%</t>
-        </is>
-      </c>
-      <c r="P5" s="2" t="inlineStr">
-        <is>
-          <t>9,02%</t>
-        </is>
-      </c>
-      <c r="Q5" s="2" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>6705</t>
-        </is>
-      </c>
-      <c r="S5" s="2" t="inlineStr">
-        <is>
-          <t>4964</t>
-        </is>
-      </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>9212</t>
+          <t>11523</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>4,93%</t>
+          <t>2,84%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>3,65%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>6,77%</t>
+          <t>5,46%</t>
         </is>
       </c>
     </row>
@@ -955,107 +955,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2132</t>
+          <t>516</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1069</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4075</t>
+          <t>2487</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>3,15%</t>
+          <t>0,48%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1,58%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>6,02%</t>
+          <t>2,33%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>1210</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>534</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>2389</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>1,77%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>0,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>3,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>3341</t>
+          <t>516</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>1949</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>5486</t>
+          <t>2834</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>2,46%</t>
+          <t>0,24%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>1,43%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>4,03%</t>
+          <t>1,34%</t>
         </is>
       </c>
     </row>
@@ -1068,22 +1068,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>177</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>67654</t>
+          <t>106582</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>67654</t>
+          <t>106582</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>67654</t>
+          <t>106582</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -1103,22 +1103,22 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>176</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>68329</t>
+          <t>104622</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>68329</t>
+          <t>104622</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>68329</t>
+          <t>104622</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1138,22 +1138,22 @@
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>730</t>
+          <t>353</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>135983</t>
+          <t>211204</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>135983</t>
+          <t>211204</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>135983</t>
+          <t>211204</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -1185,107 +1185,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>270</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>84448</t>
+          <t>170058</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>81710</t>
+          <t>165959</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>86689</t>
+          <t>172385</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>92,47%</t>
+          <t>97,49%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>89,47%</t>
+          <t>95,14%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>94,92%</t>
+          <t>98,82%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>283</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>84140</t>
+          <t>188316</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>81529</t>
+          <t>182109</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>86137</t>
+          <t>192481</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>94,02%</t>
+          <t>94,91%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>91,1%</t>
+          <t>91,78%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>96,25%</t>
+          <t>97,01%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>712</t>
+          <t>553</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>168588</t>
+          <t>358374</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>164872</t>
+          <t>351172</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>171593</t>
+          <t>363204</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>93,24%</t>
+          <t>96,11%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>91,18%</t>
+          <t>94,18%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>94,9%</t>
+          <t>97,41%</t>
         </is>
       </c>
     </row>
@@ -1298,107 +1298,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4465</t>
+          <t>4387</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2777</t>
+          <t>2060</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6837</t>
+          <t>8486</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,89%</t>
+          <t>2,51%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,04%</t>
+          <t>1,18%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,49%</t>
+          <t>4,86%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>15</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4152</t>
+          <t>8858</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2549</t>
+          <t>5125</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6360</t>
+          <t>14825</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,64%</t>
+          <t>4,46%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>7,11%</t>
+          <t>7,47%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>24</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>8617</t>
+          <t>13244</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>6223</t>
+          <t>8748</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>11850</t>
+          <t>20505</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>4,77%</t>
+          <t>3,55%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>2,35%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>6,55%</t>
+          <t>5,5%</t>
         </is>
       </c>
     </row>
@@ -1411,107 +1411,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2412</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1346</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4376</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,64%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>1201</t>
+          <t>1244</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>391</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>3109</t>
+          <t>4342</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>1,34%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>0,44%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>3,47%</t>
+          <t>2,19%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>3613</t>
+          <t>1244</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>2124</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>6198</t>
+          <t>4851</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>2,0%</t>
+          <t>0,33%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>1,17%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>3,43%</t>
+          <t>1,3%</t>
         </is>
       </c>
     </row>
@@ -1524,22 +1524,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>279</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>91325</t>
+          <t>174445</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>91325</t>
+          <t>174445</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>91325</t>
+          <t>174445</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1559,22 +1559,22 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>300</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>89493</t>
+          <t>198417</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>89493</t>
+          <t>198417</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>89493</t>
+          <t>198417</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1594,22 +1594,22 @@
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>774</t>
+          <t>579</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>180818</t>
+          <t>372862</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>180818</t>
+          <t>372862</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>180818</t>
+          <t>372862</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -1641,107 +1641,107 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>371</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>113636</t>
+          <t>235464</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>109605</t>
+          <t>229296</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>116632</t>
+          <t>239499</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>89,87%</t>
+          <t>95,94%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>86,68%</t>
+          <t>93,43%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>92,24%</t>
+          <t>97,59%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>530</t>
+          <t>385</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>114805</t>
+          <t>233478</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>111461</t>
+          <t>227364</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>117710</t>
+          <t>237290</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>90,62%</t>
+          <t>96,24%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>87,98%</t>
+          <t>93,72%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>92,91%</t>
+          <t>97,81%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1042</t>
+          <t>756</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>228441</t>
+          <t>468942</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>223589</t>
+          <t>461274</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>232798</t>
+          <t>475347</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>90,24%</t>
+          <t>96,09%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>88,33%</t>
+          <t>94,52%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>91,97%</t>
+          <t>97,4%</t>
         </is>
       </c>
     </row>
@@ -1754,107 +1754,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9046</t>
+          <t>7994</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6510</t>
+          <t>4555</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>12294</t>
+          <t>13224</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,15%</t>
+          <t>3,26%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,15%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>9,72%</t>
+          <t>5,39%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>12</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7211</t>
+          <t>8427</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>5091</t>
+          <t>4855</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>9976</t>
+          <t>15070</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,69%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>4,02%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>7,87%</t>
+          <t>6,21%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>26</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>16257</t>
+          <t>16421</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>12795</t>
+          <t>10202</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>20517</t>
+          <t>23527</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>6,42%</t>
+          <t>3,36%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>5,05%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>8,11%</t>
+          <t>4,82%</t>
         </is>
       </c>
     </row>
@@ -1867,107 +1867,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>3761</t>
+          <t>1967</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2255</t>
+          <t>419</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>6218</t>
+          <t>5913</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>2,97%</t>
+          <t>0,8%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>1,78%</t>
+          <t>0,17%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>4,92%</t>
+          <t>2,41%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>4678</t>
+          <t>701</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>2855</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>7106</t>
+          <t>3991</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>0,29%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>2,25%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>5,61%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>8438</t>
+          <t>2669</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>6085</t>
+          <t>704</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>11649</t>
+          <t>6715</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>3,33%</t>
+          <t>0,55%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>2,4%</t>
+          <t>0,14%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>4,6%</t>
+          <t>1,38%</t>
         </is>
       </c>
     </row>
@@ -1980,22 +1980,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>388</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>126443</t>
+          <t>245425</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>126443</t>
+          <t>245425</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>126443</t>
+          <t>245425</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2015,22 +2015,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>586</t>
+          <t>398</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>126694</t>
+          <t>242606</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>126694</t>
+          <t>242606</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>126694</t>
+          <t>242606</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2050,22 +2050,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1157</t>
+          <t>786</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>253136</t>
+          <t>488031</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>253136</t>
+          <t>488031</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>253136</t>
+          <t>488031</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2097,107 +2097,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>721</t>
+          <t>461</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>133129</t>
+          <t>283148</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>129329</t>
+          <t>276134</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>136170</t>
+          <t>287773</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>89,87%</t>
+          <t>95,83%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>87,3%</t>
+          <t>93,46%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>91,92%</t>
+          <t>97,4%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>745</t>
+          <t>430</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>138461</t>
+          <t>261167</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>135599</t>
+          <t>252920</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>141258</t>
+          <t>266800</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>92,26%</t>
+          <t>94,81%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>90,35%</t>
+          <t>91,81%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>94,13%</t>
+          <t>96,85%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>1466</t>
+          <t>891</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>271591</t>
+          <t>544315</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>266934</t>
+          <t>534558</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>275738</t>
+          <t>551884</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>91,07%</t>
+          <t>95,34%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>89,51%</t>
+          <t>93,63%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>92,46%</t>
+          <t>96,66%</t>
         </is>
       </c>
     </row>
@@ -2210,107 +2210,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>10169</t>
+          <t>10457</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7692</t>
+          <t>6100</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>13408</t>
+          <t>16928</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6,86%</t>
+          <t>3,54%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,19%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>9,05%</t>
+          <t>5,73%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>16</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>7468</t>
+          <t>11177</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>5258</t>
+          <t>6396</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>9788</t>
+          <t>19432</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>4,98%</t>
+          <t>4,06%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>3,5%</t>
+          <t>2,32%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>6,52%</t>
+          <t>7,05%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>33</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>17637</t>
+          <t>21634</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>14530</t>
+          <t>15423</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>21813</t>
+          <t>31487</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>5,91%</t>
+          <t>3,79%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>4,87%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>7,31%</t>
+          <t>5,51%</t>
         </is>
       </c>
     </row>
@@ -2323,107 +2323,107 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>4842</t>
+          <t>1862</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>3272</t>
+          <t>530</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>7202</t>
+          <t>4573</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>3,27%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>2,21%</t>
+          <t>0,18%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>4,86%</t>
+          <t>1,55%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>4145</t>
+          <t>3125</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>2524</t>
+          <t>969</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>6075</t>
+          <t>7113</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>2,76%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>1,68%</t>
+          <t>0,35%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>4,05%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>9</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>8987</t>
+          <t>4988</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>6308</t>
+          <t>2304</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>11638</t>
+          <t>9472</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>3,01%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>2,12%</t>
+          <t>0,4%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>3,9%</t>
+          <t>1,66%</t>
         </is>
       </c>
     </row>
@@ -2436,22 +2436,22 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>807</t>
+          <t>482</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>148140</t>
+          <t>295467</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>148140</t>
+          <t>295467</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>148140</t>
+          <t>295467</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -2471,22 +2471,22 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>816</t>
+          <t>451</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>150074</t>
+          <t>275470</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>150074</t>
+          <t>275470</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>150074</t>
+          <t>275470</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -2506,22 +2506,22 @@
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>1623</t>
+          <t>933</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>298215</t>
+          <t>570937</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>298215</t>
+          <t>570937</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>298215</t>
+          <t>570937</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -2553,107 +2553,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>668</t>
+          <t>352</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>118637</t>
+          <t>223287</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>115543</t>
+          <t>217054</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>121205</t>
+          <t>227545</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>91,21%</t>
+          <t>95,46%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>88,83%</t>
+          <t>92,79%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>93,19%</t>
+          <t>97,28%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>780</t>
+          <t>382</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>127771</t>
+          <t>231169</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>124884</t>
+          <t>225988</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>130261</t>
+          <t>234194</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>91,42%</t>
+          <t>97,24%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>89,35%</t>
+          <t>95,06%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>93,2%</t>
+          <t>98,52%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>1448</t>
+          <t>734</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>246408</t>
+          <t>454455</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>242230</t>
+          <t>447142</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>250076</t>
+          <t>460542</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>91,32%</t>
+          <t>96,36%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>89,77%</t>
+          <t>94,81%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>92,68%</t>
+          <t>97,65%</t>
         </is>
       </c>
     </row>
@@ -2666,107 +2666,107 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>7908</t>
+          <t>10625</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>5839</t>
+          <t>6367</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>10583</t>
+          <t>16858</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>6,08%</t>
+          <t>4,54%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>4,49%</t>
+          <t>2,72%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>8,14%</t>
+          <t>7,21%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>12</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>6623</t>
+          <t>6552</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>4795</t>
+          <t>3527</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>8784</t>
+          <t>11733</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>4,74%</t>
+          <t>2,76%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>3,43%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>6,29%</t>
+          <t>4,94%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>28</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>14532</t>
+          <t>17178</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>11684</t>
+          <t>11091</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>17907</t>
+          <t>24491</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>5,39%</t>
+          <t>3,64%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>4,33%</t>
+          <t>2,35%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>6,64%</t>
+          <t>5,19%</t>
         </is>
       </c>
     </row>
@@ -2779,107 +2779,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>3524</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>2239</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>5375</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>2,71%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>1,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>4,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>5372</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>3788</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>7342</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>3,84%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>2,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>8896</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>6771</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>11776</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>2,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>4,36%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -2892,22 +2892,22 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>735</t>
+          <t>368</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>130069</t>
+          <t>233912</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>130069</t>
+          <t>233912</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>130069</t>
+          <t>233912</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2927,22 +2927,22 @@
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>863</t>
+          <t>394</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>139766</t>
+          <t>237721</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>139766</t>
+          <t>237721</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>139766</t>
+          <t>237721</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -2962,22 +2962,22 @@
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>1598</t>
+          <t>762</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>269835</t>
+          <t>471633</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>269835</t>
+          <t>471633</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>269835</t>
+          <t>471633</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -3009,107 +3009,107 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>539</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>88567</t>
+          <t>175143</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>86174</t>
+          <t>171603</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>90450</t>
+          <t>177572</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>92,59%</t>
+          <t>96,21%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>90,09%</t>
+          <t>94,26%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>94,56%</t>
+          <t>97,54%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>647</t>
+          <t>434</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>102970</t>
+          <t>166857</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>100414</t>
+          <t>162023</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>105111</t>
+          <t>170136</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>91,96%</t>
+          <t>94,91%</t>
         </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>89,68%</t>
+          <t>92,16%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>93,87%</t>
+          <t>96,77%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>1247</t>
+          <t>973</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>191537</t>
+          <t>342000</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>188123</t>
+          <t>336883</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>194390</t>
+          <t>346530</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>92,25%</t>
+          <t>95,57%</t>
         </is>
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>90,61%</t>
+          <t>94,14%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>93,63%</t>
+          <t>96,83%</t>
         </is>
       </c>
     </row>
@@ -3122,107 +3122,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>4589</t>
+          <t>5708</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>3140</t>
+          <t>3645</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>6557</t>
+          <t>8841</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>4,8%</t>
+          <t>3,14%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>3,28%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>6,85%</t>
+          <t>4,86%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>5978</t>
+          <t>7793</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>4346</t>
+          <t>4654</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>8094</t>
+          <t>12217</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>5,34%</t>
+          <t>4,43%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>3,88%</t>
+          <t>2,65%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>7,23%</t>
+          <t>6,95%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>39</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>10567</t>
+          <t>13501</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>8255</t>
+          <t>9299</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>13595</t>
+          <t>18648</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>5,09%</t>
+          <t>3,77%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>6,55%</t>
+          <t>5,21%</t>
         </is>
       </c>
     </row>
@@ -3235,107 +3235,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>2497</t>
+          <t>1199</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>1448</t>
+          <t>326</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>3849</t>
+          <t>3120</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>2,61%</t>
+          <t>0,66%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>1,51%</t>
+          <t>0,18%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>4,02%</t>
+          <t>1,71%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>3022</t>
+          <t>1160</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>1847</t>
+          <t>253</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>4601</t>
+          <t>3318</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>2,7%</t>
+          <t>0,66%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>0,14%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>4,11%</t>
+          <t>1,89%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>7</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>5519</t>
+          <t>2359</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>3980</t>
+          <t>1112</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>7867</t>
+          <t>4667</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>2,66%</t>
+          <t>0,66%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>1,92%</t>
+          <t>0,31%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>3,79%</t>
+          <t>1,3%</t>
         </is>
       </c>
     </row>
@@ -3348,22 +3348,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>650</t>
+          <t>564</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>95652</t>
+          <t>182050</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>95652</t>
+          <t>182050</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>95652</t>
+          <t>182050</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3383,22 +3383,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>706</t>
+          <t>455</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>111970</t>
+          <t>175810</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>111970</t>
+          <t>175810</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>111970</t>
+          <t>175810</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3418,22 +3418,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>1356</t>
+          <t>1019</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>207623</t>
+          <t>357860</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>207623</t>
+          <t>357860</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>207623</t>
+          <t>357860</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3465,107 +3465,107 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>470</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>76139</t>
+          <t>143265</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>74291</t>
+          <t>140640</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>77538</t>
+          <t>144976</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>94,7%</t>
+          <t>97,6%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>92,4%</t>
+          <t>95,81%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>96,44%</t>
+          <t>98,76%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>760</t>
+          <t>466</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>118626</t>
+          <t>184601</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>116123</t>
+          <t>181190</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>120575</t>
+          <t>186603</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>94,12%</t>
+          <t>97,85%</t>
         </is>
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>92,14%</t>
+          <t>96,05%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>95,67%</t>
+          <t>98,92%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>1286</t>
+          <t>936</t>
         </is>
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>194765</t>
+          <t>327866</t>
         </is>
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>191742</t>
+          <t>324328</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>197301</t>
+          <t>330737</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
         <is>
-          <t>94,35%</t>
+          <t>97,74%</t>
         </is>
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>92,88%</t>
+          <t>96,69%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>95,57%</t>
+          <t>98,6%</t>
         </is>
       </c>
     </row>
@@ -3578,107 +3578,107 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>3256</t>
+          <t>2769</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>2030</t>
+          <t>1320</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>4988</t>
+          <t>5268</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>4,05%</t>
+          <t>1,89%</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>0,9%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>6,2%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>5365</t>
+          <t>4049</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>3734</t>
+          <t>2047</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>7627</t>
+          <t>7460</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>4,26%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>2,96%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>6,05%</t>
+          <t>3,95%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>19</t>
         </is>
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>8621</t>
+          <t>6818</t>
         </is>
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>6499</t>
+          <t>4157</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>11609</t>
+          <t>10220</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>4,18%</t>
+          <t>2,03%</t>
         </is>
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>3,15%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>5,62%</t>
+          <t>3,05%</t>
         </is>
       </c>
     </row>
@@ -3691,107 +3691,107 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>1008</t>
+          <t>761</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>185</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>2108</t>
+          <t>2139</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>0,52%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>0,5%</t>
+          <t>0,13%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>1,46%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>2042</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>1148</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>3607</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>1,62%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>0,91%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>2,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>3</t>
         </is>
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>3050</t>
+          <t>761</t>
         </is>
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>1833</t>
+          <t>184</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>4582</t>
+          <t>2178</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>0,23%</t>
         </is>
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>0,05%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>2,22%</t>
+          <t>0,65%</t>
         </is>
       </c>
     </row>
@@ -3804,22 +3804,22 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>482</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>80403</t>
+          <t>146795</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>80403</t>
+          <t>146795</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>80403</t>
+          <t>146795</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -3839,22 +3839,22 @@
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>807</t>
+          <t>476</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>126033</t>
+          <t>188650</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>126033</t>
+          <t>188650</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>126033</t>
+          <t>188650</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -3874,22 +3874,22 @@
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>1362</t>
+          <t>958</t>
         </is>
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>206436</t>
+          <t>335445</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>206436</t>
+          <t>335445</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>206436</t>
+          <t>335445</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
@@ -3921,107 +3921,107 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>3738</t>
+          <t>2635</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>677264</t>
+          <t>1333572</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>670204</t>
+          <t>1321492</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>683558</t>
+          <t>1343136</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>91,56%</t>
+          <t>96,31%</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>90,61%</t>
+          <t>95,44%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>92,41%</t>
+          <t>97,0%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>4130</t>
+          <t>2552</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>750001</t>
+          <t>1367076</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>743410</t>
+          <t>1353308</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>756865</t>
+          <t>1378106</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
         <is>
-          <t>92,32%</t>
+          <t>96,05%</t>
         </is>
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>91,51%</t>
+          <t>95,08%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>93,17%</t>
+          <t>96,82%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
         <is>
-          <t>7868</t>
+          <t>5187</t>
         </is>
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>1427265</t>
+          <t>2700647</t>
         </is>
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>1417950</t>
+          <t>2683279</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>1436907</t>
+          <t>2715947</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
         <is>
-          <t>91,96%</t>
+          <t>96,18%</t>
         </is>
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>91,36%</t>
+          <t>95,56%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>92,58%</t>
+          <t>96,72%</t>
         </is>
       </c>
     </row>
@@ -4034,107 +4034,107 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>90</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>42248</t>
+          <t>44798</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>36884</t>
+          <t>35330</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>48111</t>
+          <t>56421</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>5,71%</t>
+          <t>3,24%</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>4,99%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>6,5%</t>
+          <t>4,07%</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>87</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>40688</t>
+          <t>49991</t>
         </is>
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>35431</t>
+          <t>39631</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
         <is>
-          <t>46275</t>
+          <t>63482</t>
         </is>
       </c>
       <c r="N33" s="2" t="inlineStr">
         <is>
-          <t>5,01%</t>
+          <t>3,51%</t>
         </is>
       </c>
       <c r="O33" s="2" t="inlineStr">
         <is>
-          <t>4,36%</t>
+          <t>2,78%</t>
         </is>
       </c>
       <c r="P33" s="2" t="inlineStr">
         <is>
-          <t>5,7%</t>
+          <t>4,46%</t>
         </is>
       </c>
       <c r="Q33" s="2" t="inlineStr">
         <is>
-          <t>496</t>
+          <t>177</t>
         </is>
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>82936</t>
+          <t>94788</t>
         </is>
       </c>
       <c r="S33" s="2" t="inlineStr">
         <is>
-          <t>74567</t>
+          <t>80693</t>
         </is>
       </c>
       <c r="T33" s="2" t="inlineStr">
         <is>
-          <t>91146</t>
+          <t>112539</t>
         </is>
       </c>
       <c r="U33" s="2" t="inlineStr">
         <is>
-          <t>5,34%</t>
+          <t>3,38%</t>
         </is>
       </c>
       <c r="V33" s="2" t="inlineStr">
         <is>
-          <t>4,8%</t>
+          <t>2,87%</t>
         </is>
       </c>
       <c r="W33" s="2" t="inlineStr">
         <is>
-          <t>5,87%</t>
+          <t>4,01%</t>
         </is>
       </c>
     </row>
@@ -4147,107 +4147,107 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>20174</t>
+          <t>6306</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>16787</t>
+          <t>3413</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>24960</t>
+          <t>10890</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>2,73%</t>
+          <t>0,46%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>2,27%</t>
+          <t>0,25%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>3,37%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>11</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>21670</t>
+          <t>6230</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>18260</t>
+          <t>3117</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>25578</t>
+          <t>10996</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
         <is>
-          <t>2,67%</t>
+          <t>0,44%</t>
         </is>
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>2,25%</t>
+          <t>0,22%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>3,15%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>26</t>
         </is>
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>41845</t>
+          <t>12536</t>
         </is>
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>36597</t>
+          <t>8069</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>47569</t>
+          <t>18840</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
         <is>
-          <t>2,7%</t>
+          <t>0,45%</t>
         </is>
       </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>2,36%</t>
+          <t>0,29%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>3,06%</t>
+          <t>0,67%</t>
         </is>
       </c>
     </row>
@@ -4260,22 +4260,22 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>4098</t>
+          <t>2740</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>739687</t>
+          <t>1384676</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>739687</t>
+          <t>1384676</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>739687</t>
+          <t>1384676</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
@@ -4295,22 +4295,22 @@
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>4502</t>
+          <t>2650</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>812359</t>
+          <t>1423296</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>812359</t>
+          <t>1423296</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>812359</t>
+          <t>1423296</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
@@ -4330,22 +4330,22 @@
       </c>
       <c r="Q35" s="2" t="inlineStr">
         <is>
-          <t>8600</t>
+          <t>5390</t>
         </is>
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>1552046</t>
+          <t>2807972</t>
         </is>
       </c>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t>1552046</t>
+          <t>2807972</t>
         </is>
       </c>
       <c r="T35" s="2" t="inlineStr">
         <is>
-          <t>1552046</t>
+          <t>2807972</t>
         </is>
       </c>
       <c r="U35" s="2" t="inlineStr">
@@ -4435,7 +4435,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción contaminación atmosférica procedente de industrial en C.Valenciana (tasa de respuesta: 93,67%)</t>
+          <t>Percepción contaminación atmosférica procedente de industrial en País Vasco (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4620,107 +4620,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>348</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>103209</t>
+          <t>62707</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>98886</t>
+          <t>60500</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>105371</t>
+          <t>64207</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>96,83%</t>
+          <t>92,69%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>92,78%</t>
+          <t>89,43%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>98,86%</t>
+          <t>94,91%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>319</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>101487</t>
+          <t>63229</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>96698</t>
+          <t>60916</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>103513</t>
+          <t>64904</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>97,0%</t>
+          <t>92,54%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>92,43%</t>
+          <t>89,15%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>98,94%</t>
+          <t>94,99%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>667</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>204696</t>
+          <t>125936</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>198826</t>
+          <t>122923</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>208045</t>
+          <t>128475</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>96,92%</t>
+          <t>92,61%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>94,14%</t>
+          <t>90,4%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>98,5%</t>
+          <t>94,48%</t>
         </is>
       </c>
     </row>
@@ -4733,107 +4733,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2858</t>
+          <t>2815</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>707</t>
+          <t>1757</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6984</t>
+          <t>4439</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,68%</t>
+          <t>4,16%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,66%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,55%</t>
+          <t>6,56%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>23</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3135</t>
+          <t>3890</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1109</t>
+          <t>2509</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>7924</t>
+          <t>6162</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,0%</t>
+          <t>5,69%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>1,06%</t>
+          <t>3,67%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>7,57%</t>
+          <t>9,02%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>44</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>5992</t>
+          <t>6705</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>2815</t>
+          <t>4964</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>11523</t>
+          <t>9212</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>2,84%</t>
+          <t>4,93%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>1,33%</t>
+          <t>3,65%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>5,46%</t>
+          <t>6,77%</t>
         </is>
       </c>
     </row>
@@ -4846,107 +4846,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>516</t>
+          <t>2132</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1069</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2487</t>
+          <t>4075</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,48%</t>
+          <t>3,15%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,58%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>2,33%</t>
+          <t>6,02%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1210</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>534</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2389</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,5%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>19</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>516</t>
+          <t>3341</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1949</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>2834</t>
+          <t>5486</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>0,24%</t>
+          <t>2,46%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,43%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>1,34%</t>
+          <t>4,03%</t>
         </is>
       </c>
     </row>
@@ -4959,22 +4959,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>380</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>106582</t>
+          <t>67654</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>106582</t>
+          <t>67654</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>106582</t>
+          <t>67654</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -4994,22 +4994,22 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>350</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>104622</t>
+          <t>68329</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>104622</t>
+          <t>68329</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>104622</t>
+          <t>68329</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -5029,22 +5029,22 @@
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>730</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>211204</t>
+          <t>135983</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>211204</t>
+          <t>135983</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>211204</t>
+          <t>135983</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -5076,107 +5076,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>363</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>170058</t>
+          <t>84448</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>165959</t>
+          <t>81710</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>172385</t>
+          <t>86689</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>97,49%</t>
+          <t>92,47%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>95,14%</t>
+          <t>89,47%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>98,82%</t>
+          <t>94,92%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>349</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>188316</t>
+          <t>84140</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>182109</t>
+          <t>81529</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>192481</t>
+          <t>86137</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>94,91%</t>
+          <t>94,02%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>91,78%</t>
+          <t>91,1%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>97,01%</t>
+          <t>96,25%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>553</t>
+          <t>712</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>358374</t>
+          <t>168588</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>351172</t>
+          <t>164872</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>363204</t>
+          <t>171593</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>96,11%</t>
+          <t>93,24%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>94,18%</t>
+          <t>91,18%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>97,41%</t>
+          <t>94,9%</t>
         </is>
       </c>
     </row>
@@ -5189,107 +5189,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4387</t>
+          <t>4465</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2060</t>
+          <t>2777</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8486</t>
+          <t>6837</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,51%</t>
+          <t>4,89%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,18%</t>
+          <t>3,04%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,86%</t>
+          <t>7,49%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>21</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>8858</t>
+          <t>4152</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>5125</t>
+          <t>2549</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>14825</t>
+          <t>6360</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,46%</t>
+          <t>4,64%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>2,58%</t>
+          <t>2,85%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>7,47%</t>
+          <t>7,11%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>46</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>13244</t>
+          <t>8617</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>8748</t>
+          <t>6223</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>20505</t>
+          <t>11850</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>3,55%</t>
+          <t>4,77%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>2,35%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>5,5%</t>
+          <t>6,55%</t>
         </is>
       </c>
     </row>
@@ -5302,107 +5302,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2412</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1346</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>4376</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,64%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,47%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,79%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>1244</t>
+          <t>1201</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>391</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>4342</t>
+          <t>3109</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,44%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>2,19%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>16</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>1244</t>
+          <t>3613</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2124</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>4851</t>
+          <t>6198</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>0,33%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,17%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>1,3%</t>
+          <t>3,43%</t>
         </is>
       </c>
     </row>
@@ -5415,22 +5415,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>400</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>174445</t>
+          <t>91325</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>174445</t>
+          <t>91325</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>174445</t>
+          <t>91325</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -5450,22 +5450,22 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>374</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>198417</t>
+          <t>89493</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>198417</t>
+          <t>89493</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>198417</t>
+          <t>89493</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -5485,22 +5485,22 @@
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>579</t>
+          <t>774</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>372862</t>
+          <t>180818</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>372862</t>
+          <t>180818</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>372862</t>
+          <t>180818</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -5532,107 +5532,107 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>512</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>235464</t>
+          <t>113636</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>229296</t>
+          <t>109605</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>239499</t>
+          <t>116632</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>95,94%</t>
+          <t>89,87%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>93,43%</t>
+          <t>86,68%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>97,59%</t>
+          <t>92,24%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>530</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>233478</t>
+          <t>114805</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>227364</t>
+          <t>111461</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>237290</t>
+          <t>117710</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>96,24%</t>
+          <t>90,62%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>93,72%</t>
+          <t>87,98%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>97,81%</t>
+          <t>92,91%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>756</t>
+          <t>1042</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>468942</t>
+          <t>228441</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>461274</t>
+          <t>223589</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>475347</t>
+          <t>232798</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>96,09%</t>
+          <t>90,24%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>94,52%</t>
+          <t>88,33%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>97,4%</t>
+          <t>91,97%</t>
         </is>
       </c>
     </row>
@@ -5645,107 +5645,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7994</t>
+          <t>9046</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4555</t>
+          <t>6510</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>13224</t>
+          <t>12294</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,26%</t>
+          <t>7,15%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>5,15%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,39%</t>
+          <t>9,72%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>35</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>8427</t>
+          <t>7211</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>4855</t>
+          <t>5091</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>15070</t>
+          <t>9976</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>3,47%</t>
+          <t>5,69%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>2,0%</t>
+          <t>4,02%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>6,21%</t>
+          <t>7,87%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>77</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>16421</t>
+          <t>16257</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>10202</t>
+          <t>12795</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>23527</t>
+          <t>20517</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>3,36%</t>
+          <t>6,42%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>2,09%</t>
+          <t>5,05%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>4,82%</t>
+          <t>8,11%</t>
         </is>
       </c>
     </row>
@@ -5758,107 +5758,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1967</t>
+          <t>3761</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>2255</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>5913</t>
+          <t>6218</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,8%</t>
+          <t>2,97%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,17%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>2,41%</t>
+          <t>4,92%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>21</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>701</t>
+          <t>4678</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2855</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>3991</t>
+          <t>7106</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,29%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,25%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>1,64%</t>
+          <t>5,61%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>38</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>2669</t>
+          <t>8438</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>704</t>
+          <t>6085</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>6715</t>
+          <t>11649</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>0,55%</t>
+          <t>3,33%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>0,14%</t>
+          <t>2,4%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>4,6%</t>
         </is>
       </c>
     </row>
@@ -5871,22 +5871,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>388</t>
+          <t>571</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>245425</t>
+          <t>126443</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>245425</t>
+          <t>126443</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>245425</t>
+          <t>126443</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -5906,22 +5906,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>586</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>242606</t>
+          <t>126694</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>242606</t>
+          <t>126694</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>242606</t>
+          <t>126694</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -5941,22 +5941,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>786</t>
+          <t>1157</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>488031</t>
+          <t>253136</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>488031</t>
+          <t>253136</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>488031</t>
+          <t>253136</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -5988,107 +5988,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>721</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>283148</t>
+          <t>133129</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>276134</t>
+          <t>129329</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>287773</t>
+          <t>136170</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>95,83%</t>
+          <t>89,87%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>93,46%</t>
+          <t>87,3%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>97,4%</t>
+          <t>91,92%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>745</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>261167</t>
+          <t>138461</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>252920</t>
+          <t>135599</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>266800</t>
+          <t>141258</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>94,81%</t>
+          <t>92,26%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>91,81%</t>
+          <t>90,35%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>96,85%</t>
+          <t>94,13%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>891</t>
+          <t>1466</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>544315</t>
+          <t>271591</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>534558</t>
+          <t>266934</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>551884</t>
+          <t>275738</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>95,34%</t>
+          <t>91,07%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>93,63%</t>
+          <t>89,51%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>96,66%</t>
+          <t>92,46%</t>
         </is>
       </c>
     </row>
@@ -6101,107 +6101,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>57</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>10457</t>
+          <t>10169</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6100</t>
+          <t>7692</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>16928</t>
+          <t>13408</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,54%</t>
+          <t>6,86%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,06%</t>
+          <t>5,19%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>5,73%</t>
+          <t>9,05%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>45</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>11177</t>
+          <t>7468</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>6396</t>
+          <t>5258</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>19432</t>
+          <t>9788</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>4,06%</t>
+          <t>4,98%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>2,32%</t>
+          <t>3,5%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>7,05%</t>
+          <t>6,52%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>102</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>21634</t>
+          <t>17637</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>15423</t>
+          <t>14530</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>31487</t>
+          <t>21813</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>3,79%</t>
+          <t>5,91%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>2,7%</t>
+          <t>4,87%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>5,51%</t>
+          <t>7,31%</t>
         </is>
       </c>
     </row>
@@ -6214,107 +6214,107 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>1862</t>
+          <t>4842</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>530</t>
+          <t>3272</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>4573</t>
+          <t>7202</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>3,27%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,18%</t>
+          <t>2,21%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>1,55%</t>
+          <t>4,86%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>26</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>3125</t>
+          <t>4145</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>969</t>
+          <t>2524</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>7113</t>
+          <t>6075</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>1,13%</t>
+          <t>2,76%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>0,35%</t>
+          <t>1,68%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>2,58%</t>
+          <t>4,05%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>55</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>4988</t>
+          <t>8987</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>2304</t>
+          <t>6308</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>9472</t>
+          <t>11638</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>0,87%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>0,4%</t>
+          <t>2,12%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>1,66%</t>
+          <t>3,9%</t>
         </is>
       </c>
     </row>
@@ -6327,22 +6327,22 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>807</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>295467</t>
+          <t>148140</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>295467</t>
+          <t>148140</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>295467</t>
+          <t>148140</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -6362,22 +6362,22 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>816</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>275470</t>
+          <t>150074</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>275470</t>
+          <t>150074</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>275470</t>
+          <t>150074</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -6397,22 +6397,22 @@
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>933</t>
+          <t>1623</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>570937</t>
+          <t>298215</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>570937</t>
+          <t>298215</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>570937</t>
+          <t>298215</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -6444,107 +6444,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>668</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>223287</t>
+          <t>118637</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>217054</t>
+          <t>115543</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>227545</t>
+          <t>121205</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>95,46%</t>
+          <t>91,21%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>92,79%</t>
+          <t>88,83%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>97,28%</t>
+          <t>93,19%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>780</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>231169</t>
+          <t>127771</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>225988</t>
+          <t>124884</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>234194</t>
+          <t>130261</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>97,24%</t>
+          <t>91,42%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>95,06%</t>
+          <t>89,35%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>98,52%</t>
+          <t>93,2%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>734</t>
+          <t>1448</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>454455</t>
+          <t>246408</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>447142</t>
+          <t>242230</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>460542</t>
+          <t>250076</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>96,36%</t>
+          <t>91,32%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>94,81%</t>
+          <t>89,77%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>97,65%</t>
+          <t>92,68%</t>
         </is>
       </c>
     </row>
@@ -6557,107 +6557,107 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>49</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>10625</t>
+          <t>7908</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>6367</t>
+          <t>5839</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>16858</t>
+          <t>10583</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>4,54%</t>
+          <t>6,08%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>2,72%</t>
+          <t>4,49%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>7,21%</t>
+          <t>8,14%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>48</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>6552</t>
+          <t>6623</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>3527</t>
+          <t>4795</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>11733</t>
+          <t>8784</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>2,76%</t>
+          <t>4,74%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>3,43%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>4,94%</t>
+          <t>6,29%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>97</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>17178</t>
+          <t>14532</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>11091</t>
+          <t>11684</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>24491</t>
+          <t>17907</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>3,64%</t>
+          <t>5,39%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>2,35%</t>
+          <t>4,33%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>5,19%</t>
+          <t>6,64%</t>
         </is>
       </c>
     </row>
@@ -6670,107 +6670,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3524</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2239</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>5375</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,71%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,13%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>35</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5372</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>3788</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>7342</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,84%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,71%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,25%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>53</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8896</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>6771</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>11776</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,3%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,51%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,36%</t>
         </is>
       </c>
     </row>
@@ -6783,22 +6783,22 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>735</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>233912</t>
+          <t>130069</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>233912</t>
+          <t>130069</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>233912</t>
+          <t>130069</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -6818,22 +6818,22 @@
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>863</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>237721</t>
+          <t>139766</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>237721</t>
+          <t>139766</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>237721</t>
+          <t>139766</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -6853,22 +6853,22 @@
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>762</t>
+          <t>1598</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>471633</t>
+          <t>269835</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>471633</t>
+          <t>269835</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>471633</t>
+          <t>269835</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -6900,107 +6900,107 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>539</t>
+          <t>600</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>175143</t>
+          <t>88567</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>171603</t>
+          <t>86174</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>177572</t>
+          <t>90450</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>96,21%</t>
+          <t>92,59%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>94,26%</t>
+          <t>90,09%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>97,54%</t>
+          <t>94,56%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>647</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>166857</t>
+          <t>102970</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>162023</t>
+          <t>100414</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>170136</t>
+          <t>105111</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>94,91%</t>
+          <t>91,96%</t>
         </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>92,16%</t>
+          <t>89,68%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>96,77%</t>
+          <t>93,87%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>973</t>
+          <t>1247</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>342000</t>
+          <t>191537</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>336883</t>
+          <t>188123</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>346530</t>
+          <t>194390</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>95,57%</t>
+          <t>92,25%</t>
         </is>
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>94,14%</t>
+          <t>90,61%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>96,83%</t>
+          <t>93,63%</t>
         </is>
       </c>
     </row>
@@ -7013,107 +7013,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>5708</t>
+          <t>4589</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>3645</t>
+          <t>3140</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>8841</t>
+          <t>6557</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>3,14%</t>
+          <t>4,8%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>2,0%</t>
+          <t>3,28%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>4,86%</t>
+          <t>6,85%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>41</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>7793</t>
+          <t>5978</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>4654</t>
+          <t>4346</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>12217</t>
+          <t>8094</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>4,43%</t>
+          <t>5,34%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>2,65%</t>
+          <t>3,88%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>6,95%</t>
+          <t>7,23%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>75</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>13501</t>
+          <t>10567</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>9299</t>
+          <t>8255</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>18648</t>
+          <t>13595</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>3,77%</t>
+          <t>5,09%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>5,21%</t>
+          <t>6,55%</t>
         </is>
       </c>
     </row>
@@ -7126,107 +7126,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>1199</t>
+          <t>2497</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>1448</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>3120</t>
+          <t>3849</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>0,66%</t>
+          <t>2,61%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>0,18%</t>
+          <t>1,51%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>1,71%</t>
+          <t>4,02%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>1160</t>
+          <t>3022</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>1847</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>3318</t>
+          <t>4601</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>0,66%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>0,14%</t>
+          <t>1,65%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>1,89%</t>
+          <t>4,11%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>34</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>2359</t>
+          <t>5519</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>1112</t>
+          <t>3980</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>4667</t>
+          <t>7867</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>0,66%</t>
+          <t>2,66%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>0,31%</t>
+          <t>1,92%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>1,3%</t>
+          <t>3,79%</t>
         </is>
       </c>
     </row>
@@ -7239,22 +7239,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>564</t>
+          <t>650</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>182050</t>
+          <t>95652</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>182050</t>
+          <t>95652</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>182050</t>
+          <t>95652</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -7274,22 +7274,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>706</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>175810</t>
+          <t>111970</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>175810</t>
+          <t>111970</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>175810</t>
+          <t>111970</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -7309,22 +7309,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>1019</t>
+          <t>1356</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>357860</t>
+          <t>207623</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>357860</t>
+          <t>207623</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>357860</t>
+          <t>207623</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -7356,107 +7356,107 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>470</t>
+          <t>526</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>143265</t>
+          <t>76139</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>140640</t>
+          <t>74291</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>144976</t>
+          <t>77538</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>97,6%</t>
+          <t>94,7%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>95,81%</t>
+          <t>92,4%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>98,76%</t>
+          <t>96,44%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>760</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>184601</t>
+          <t>118626</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>181190</t>
+          <t>116123</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>186603</t>
+          <t>120575</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>97,85%</t>
+          <t>94,12%</t>
         </is>
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>96,05%</t>
+          <t>92,14%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>98,92%</t>
+          <t>95,67%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>936</t>
+          <t>1286</t>
         </is>
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>327866</t>
+          <t>194765</t>
         </is>
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>324328</t>
+          <t>191742</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>330737</t>
+          <t>197301</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
         <is>
-          <t>97,74%</t>
+          <t>94,35%</t>
         </is>
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>96,69%</t>
+          <t>92,88%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>98,6%</t>
+          <t>95,57%</t>
         </is>
       </c>
     </row>
@@ -7469,107 +7469,107 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>2769</t>
+          <t>3256</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>1320</t>
+          <t>2030</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>5268</t>
+          <t>4988</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>1,89%</t>
+          <t>4,05%</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>0,9%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>3,59%</t>
+          <t>6,2%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>33</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>4049</t>
+          <t>5365</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>2047</t>
+          <t>3734</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>7460</t>
+          <t>7627</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>2,15%</t>
+          <t>4,26%</t>
         </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>1,08%</t>
+          <t>2,96%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>3,95%</t>
+          <t>6,05%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>55</t>
         </is>
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>6818</t>
+          <t>8621</t>
         </is>
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>4157</t>
+          <t>6499</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>10220</t>
+          <t>11609</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>2,03%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>1,24%</t>
+          <t>3,15%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>3,05%</t>
+          <t>5,62%</t>
         </is>
       </c>
     </row>
@@ -7582,107 +7582,107 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>761</t>
+          <t>1008</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>399</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>2139</t>
+          <t>2108</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>0,52%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>0,13%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>1,46%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2042</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1148</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>3607</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>21</t>
         </is>
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>761</t>
+          <t>3050</t>
         </is>
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>1833</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>2178</t>
+          <t>4582</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>0,23%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>0,05%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>0,65%</t>
+          <t>2,22%</t>
         </is>
       </c>
     </row>
@@ -7695,22 +7695,22 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>555</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>146795</t>
+          <t>80403</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>146795</t>
+          <t>80403</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>146795</t>
+          <t>80403</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -7730,22 +7730,22 @@
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>476</t>
+          <t>807</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>188650</t>
+          <t>126033</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>188650</t>
+          <t>126033</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>188650</t>
+          <t>126033</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -7765,22 +7765,22 @@
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>958</t>
+          <t>1362</t>
         </is>
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>335445</t>
+          <t>206436</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>335445</t>
+          <t>206436</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>335445</t>
+          <t>206436</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
@@ -7812,107 +7812,107 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>2635</t>
+          <t>3738</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>1333572</t>
+          <t>677264</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>1321492</t>
+          <t>670204</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>1343136</t>
+          <t>683558</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>96,31%</t>
+          <t>91,56%</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>95,44%</t>
+          <t>90,61%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>97,0%</t>
+          <t>92,41%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>2552</t>
+          <t>4130</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>1367076</t>
+          <t>750001</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>1353308</t>
+          <t>743410</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>1378106</t>
+          <t>756865</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
         <is>
-          <t>96,05%</t>
+          <t>92,32%</t>
         </is>
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>95,08%</t>
+          <t>91,51%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>96,82%</t>
+          <t>93,17%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
         <is>
-          <t>5187</t>
+          <t>7868</t>
         </is>
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>2700647</t>
+          <t>1427265</t>
         </is>
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>2683279</t>
+          <t>1417950</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>2715947</t>
+          <t>1436907</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
         <is>
-          <t>96,18%</t>
+          <t>91,96%</t>
         </is>
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>95,56%</t>
+          <t>91,36%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>96,72%</t>
+          <t>92,58%</t>
         </is>
       </c>
     </row>
@@ -7925,107 +7925,107 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>250</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>44798</t>
+          <t>42248</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>35330</t>
+          <t>36884</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>56421</t>
+          <t>48111</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>3,24%</t>
+          <t>5,71%</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>2,55%</t>
+          <t>4,99%</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>6,5%</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>246</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>49991</t>
+          <t>40688</t>
         </is>
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>39631</t>
+          <t>35431</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
         <is>
-          <t>63482</t>
+          <t>46275</t>
         </is>
       </c>
       <c r="N33" s="2" t="inlineStr">
         <is>
-          <t>3,51%</t>
+          <t>5,01%</t>
         </is>
       </c>
       <c r="O33" s="2" t="inlineStr">
         <is>
-          <t>2,78%</t>
+          <t>4,36%</t>
         </is>
       </c>
       <c r="P33" s="2" t="inlineStr">
         <is>
-          <t>4,46%</t>
+          <t>5,7%</t>
         </is>
       </c>
       <c r="Q33" s="2" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>496</t>
         </is>
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>94788</t>
+          <t>82936</t>
         </is>
       </c>
       <c r="S33" s="2" t="inlineStr">
         <is>
-          <t>80693</t>
+          <t>74567</t>
         </is>
       </c>
       <c r="T33" s="2" t="inlineStr">
         <is>
-          <t>112539</t>
+          <t>91146</t>
         </is>
       </c>
       <c r="U33" s="2" t="inlineStr">
         <is>
-          <t>3,38%</t>
+          <t>5,34%</t>
         </is>
       </c>
       <c r="V33" s="2" t="inlineStr">
         <is>
-          <t>2,87%</t>
+          <t>4,8%</t>
         </is>
       </c>
       <c r="W33" s="2" t="inlineStr">
         <is>
-          <t>4,01%</t>
+          <t>5,87%</t>
         </is>
       </c>
     </row>
@@ -8038,107 +8038,107 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>110</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>6306</t>
+          <t>20174</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>3413</t>
+          <t>16787</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>10890</t>
+          <t>24960</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>0,46%</t>
+          <t>2,73%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>0,25%</t>
+          <t>2,27%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>0,79%</t>
+          <t>3,37%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>126</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>6230</t>
+          <t>21670</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>3117</t>
+          <t>18260</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>10996</t>
+          <t>25578</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
         <is>
-          <t>0,44%</t>
+          <t>2,67%</t>
         </is>
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>0,22%</t>
+          <t>2,25%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>0,77%</t>
+          <t>3,15%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>236</t>
         </is>
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>12536</t>
+          <t>41845</t>
         </is>
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>8069</t>
+          <t>36597</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>18840</t>
+          <t>47569</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
         <is>
-          <t>0,45%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>0,29%</t>
+          <t>2,36%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>0,67%</t>
+          <t>3,06%</t>
         </is>
       </c>
     </row>
@@ -8151,22 +8151,22 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>2740</t>
+          <t>4098</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>1384676</t>
+          <t>739687</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>1384676</t>
+          <t>739687</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>1384676</t>
+          <t>739687</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
@@ -8186,22 +8186,22 @@
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>2650</t>
+          <t>4502</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>1423296</t>
+          <t>812359</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>1423296</t>
+          <t>812359</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>1423296</t>
+          <t>812359</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
@@ -8221,22 +8221,22 @@
       </c>
       <c r="Q35" s="2" t="inlineStr">
         <is>
-          <t>5390</t>
+          <t>8600</t>
         </is>
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>2807972</t>
+          <t>1552046</t>
         </is>
       </c>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t>2807972</t>
+          <t>1552046</t>
         </is>
       </c>
       <c r="T35" s="2" t="inlineStr">
         <is>
-          <t>2807972</t>
+          <t>1552046</t>
         </is>
       </c>
       <c r="U35" s="2" t="inlineStr">
